--- a/src/Data/ClusteringQuality/DenStream/Denstream-KDD98-Normalized.xlsx
+++ b/src/Data/ClusteringQuality/DenStream/Denstream-KDD98-Normalized.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kk/Documents/ISCAS/StreamingML/document/clustering/streamclustering/TestResult/pic/0509CMMNormalied/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kk/Repositories/PythonGraph/src/Data/ClusteringQuality/DenStream/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,15 +32,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>ordered-DenStream</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>unordered-DenStream</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MOA=1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DistStream-DenStream</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -411,25 +411,26 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="186" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="29.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>

--- a/src/Data/ClusteringQuality/DenStream/Denstream-KDD98-Normalized.xlsx
+++ b/src/Data/ClusteringQuality/DenStream/Denstream-KDD98-Normalized.xlsx
@@ -1,28 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28209"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kk/Repositories/PythonGraph/src/Data/ClusteringQuality/DenStream/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28705"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="31640" yWindow="3900" windowWidth="25600" windowHeight="15540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -32,16 +27,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>unordered-DenStream</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MOA=1.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DistStream-DenStream</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unordered-DenStream</t>
   </si>
 </sst>
 </file>
@@ -52,14 +46,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -96,7 +90,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -154,7 +148,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -206,7 +200,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -400,7 +394,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -411,31 +405,31 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="186" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="29.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>10</v>
       </c>
@@ -449,7 +443,7 @@
         <v>0.91204695700000005</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>20</v>
       </c>
@@ -463,7 +457,7 @@
         <v>0.93196088600000004</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>30</v>
       </c>
@@ -477,7 +471,7 @@
         <v>1.0012819239999999</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>40</v>
       </c>
@@ -491,7 +485,7 @@
         <v>0.99334668100000001</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>50</v>
       </c>
@@ -505,7 +499,7 @@
         <v>0.99792199599999998</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>60</v>
       </c>
@@ -519,7 +513,7 @@
         <v>0.89065714200000001</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>70</v>
       </c>
@@ -533,7 +527,7 @@
         <v>1.0005559040000001</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>80</v>
       </c>
@@ -547,7 +541,7 @@
         <v>0.99981678299999999</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>90</v>
       </c>
@@ -561,7 +555,7 @@
         <v>1.0000738689999999</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -570,5 +564,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/src/Data/ClusteringQuality/DenStream/Denstream-KDD98-Normalized.xlsx
+++ b/src/Data/ClusteringQuality/DenStream/Denstream-KDD98-Normalized.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28209"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kk/Repositories/PythonGraph/src/Data/ClusteringQuality/DenStream/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,15 +32,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>MOA=1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DistStream-DenStream</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Unordered-DenStream</t>
+  </si>
+  <si>
+    <t>MOA-DenStream</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -46,14 +51,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -90,7 +95,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -394,7 +399,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -405,31 +410,31 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="186" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="29.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>10</v>
       </c>
@@ -443,7 +448,7 @@
         <v>0.91204695700000005</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>20</v>
       </c>
@@ -457,7 +462,7 @@
         <v>0.93196088600000004</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>30</v>
       </c>
@@ -471,7 +476,7 @@
         <v>1.0012819239999999</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>40</v>
       </c>
@@ -485,7 +490,7 @@
         <v>0.99334668100000001</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>50</v>
       </c>
@@ -499,7 +504,7 @@
         <v>0.99792199599999998</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>60</v>
       </c>
@@ -513,7 +518,7 @@
         <v>0.89065714200000001</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>70</v>
       </c>
@@ -527,7 +532,7 @@
         <v>1.0005559040000001</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>80</v>
       </c>
@@ -541,7 +546,7 @@
         <v>0.99981678299999999</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>90</v>
       </c>
@@ -555,7 +560,7 @@
         <v>1.0000738689999999</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -564,10 +569,5 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>